--- a/files/判断题模板.xlsx
+++ b/files/判断题模板.xlsx
@@ -121,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,28 +405,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
